--- a/frontend-cemos/public/assets/content/direito/3-carta-nacoes-unidas/script/vf1.xlsx
+++ b/frontend-cemos/public/assets/content/direito/3-carta-nacoes-unidas/script/vf1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,17 +493,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O principal propósito das Nações Unidas é manter a paz e a segurança internacionais, tomando medidas coletivas para evitar ameaças à paz e reprimir atos de agressão.</t>
+          <t>A Carta das Nações Unidas foi assinada em **São Francisco, a 26 de junho de 1945**, por ocasião da Conferência de Organização Internacional das Nações Unidas.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O principal propósito das Nações Unidas limita-se a promover a cooperação cultural e social, abstendo-se de tomar medidas coercitivas para reprimir a agressão.</t>
+          <t>A Carta das Nações Unidas foi promulgada em Genebra em 1946, após a ratificação dos membros permanentes.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O primeiro propósito da ONU é Manter a paz e a segurança internacionais e tomar, coletivamente, medidas efetivas para evitar ameaças à paz e reprimir atos de agressão ou outra qualquer ruptura da paz.</t>
+          <t>A Carta foi assinada em São Francisco em 26 de junho de 1945.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -527,17 +527,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas foi assinada em São Francisco a 26 de junho de 1945.</t>
+          <t>O primeiro propósito da ONU é **manter a paz e a segurança internacionais** e tomar medidas efetivas para **reprimir os atos de agressão** ou outra qualquer ruptura da paz.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas foi promulgada em 22 de outubro de 1945, data da sua assinatura em Nova York.</t>
+          <t>O primeiro propósito da ONU é garantir a liberdade de comércio entre os Estados-membros, sendo a repressão da agressão uma função subsidiária.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas foi assinada em São Francisco, a 26 de junho de 1945.</t>
+          <t>O primeiro propósito é manter a paz e a segurança internacionais e reprimir os atos de agressão.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -561,17 +561,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>As Nações Unidas buscam a cooperação internacional para promover e estimular o respeito aos direitos humanos e às liberdades fundamentais para todos, sem distinção de raça, sexo, língua ou religião.</t>
+          <t>Um dos propósitos da ONU é conseguir cooperação internacional para resolver problemas internacionais de caráter econômico, social, cultural ou humanitário, e promover o **respeito aos direitos humanos**.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Carta estabelece que a promoção dos direitos humanos é responsabilidade exclusiva dos Estados-membros, sendo vedada a interferência da ONU nesse assunto.</t>
+          <t>A ONU tem como propósito primário intervir em questões de jurisdição interna dos Estados para resolver problemas sociais e culturais.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 1 (3) estabelece o propósito de conseguir cooperação internacional para promover e estimular o respeito aos direitos humanos e às liberdades fundamentais para todos, sem distinção.</t>
+          <t>O Artigo 1 (3) estabelece o propósito de conseguir cooperação internacional para resolver problemas internacionais e promover o respeito aos direitos humanos.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -595,17 +595,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A Organização das Nações Unidas é baseada no princípio da igualdade de todos os seus Membros.</t>
+          <t>A Organização das Nações Unidas é baseada no **princípio da igualdade de todos os seus Membros**.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A ONU é baseada no princípio da desigualdade soberana, conferindo maior peso aos membros permanentes do Conselho de Segurança em todas as decisões.</t>
+          <t>A Organização é baseada no princípio da soberania dos membros permanentes, que possuem direitos e vantagens superiores aos demais.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 2 (1) afirma que a Organização é baseada no princípio da igualdade de todos os seus Membros.</t>
+          <t>O Artigo 2 (1) estabelece que a Organização é baseada no princípio da igualdade de todos os seus Membros.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Todos os Membros deverão evitar a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado em suas relações internacionais.</t>
+          <t>Todos os Membros deverão **evitar em suas relações internacionais a ameaça ou o uso da força** contra a integridade territorial ou a dependência política de qualquer Estado.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O uso da força é permitido nas relações internacionais, desde que seja comunicado ao Conselho de Segurança antes da sua execução.</t>
+          <t>A ameaça de força é permitida nas relações internacionais, desde que não seja dirigida contra a integridade territorial de um Estado.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 2 (4) exige que todos os Membros evitem em suas relações internacionais a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado.</t>
+          <t>O Artigo 2 (4) proíbe a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -663,17 +663,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O princípio de não intervenção em assuntos que dependam essencialmente da jurisdição interna de qualquer Estado não prejudica a aplicação das medidas coercitivas constantes do Capítulo VII da Carta.</t>
+          <t>O princípio de não intervenção da ONU em assuntos de jurisdição interna **não prejudicará a aplicação das medidas coercitivas** constantes do Capítulo VII da Carta.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>O Capítulo VII, que trata de ações coercitivas, não pode ser aplicado em assuntos que dependam da jurisdição interna de um Estado, prevalecendo o princípio de não intervenção.</t>
+          <t>O princípio de não intervenção em assuntos de jurisdição interna é absoluto e impede a aplicação de qualquer medida coercitiva do Capítulo VII.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O princípio de não intervenção (Artigo 2.7) não prejudicará a aplicação das medidas coercitivas constantes do Capítulo VII.</t>
+          <t>O Artigo 2 (7) afirma que o princípio de não intervenção não prejudicará a aplicação das medidas coercitivas do Capítulo VII.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -697,17 +697,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança é composto por quinze Membros das Nações Unidas.</t>
+          <t>As decisões do Conselho de Segurança, em **todos os outros assuntos** (não processuais), exigem o voto afirmativo de nove membros, **inclusive os votos afirmativos de todos os membros permanentes**.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança é composto por dez membros não permanentes e dois membros permanentes, totalizando doze membros.</t>
+          <t>O voto negativo de um membro permanente não impede a decisão em "todos os outros assuntos", desde que nove membros votem afirmativamente.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança será composto de quinze Membros das Nações Unidas.</t>
+          <t>O Artigo 27 (3) exige o voto afirmativo de nove membros, incluindo todos os membros permanentes, para decisões substantivas.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -731,17 +731,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A República da China, a França, a União das Repúblicas Socialistas Soviéticas, o Reino Unido da Grã-Bretanha e Irlanda do Norte e os Estados Unidos da América são os membros permanentes do Conselho de Segurança.</t>
+          <t>As partes em uma controvérsia que ameace a paz devem, antes de tudo, procurar uma solução por **negociação, mediação, conciliação, arbitragem, solução judicial**, ou outros meios pacíficos.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Os membros permanentes do Conselho de Segurança incluem a Alemanha, o Japão e a Índia, além dos Estados Unidos e da Rússia.</t>
+          <t>Antes de procurar meios pacíficos, as partes em uma controvérsia internacional devem submeter a questão à votação na Assembleia Geral.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Os cinco membros permanentes estão listados no Artigo 23 (1).</t>
+          <t>O Artigo 33 (1) lista a negociação, mediação, conciliação, arbitragem, e solução judicial como meios a serem procurados antes de tudo pelas partes.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -765,17 +765,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Os membros não permanentes do Conselho de Segurança são eleitos por um período de dois anos, e nenhum membro que termine seu mandato poderá ser reeleito para o período imediato.</t>
+          <t>O Conselho de Segurança poderá investigar sobre qualquer controvérsia ou situação suscetível de provocar atritos, a fim de determinar se constitui **ameaça à manutenção da paz**.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Os membros não permanentes são eleitos por um período de quatro anos, e podem ser reeleitos imediatamente, dependendo da distribuição geográfica equitativa.</t>
+          <t>O Conselho de Segurança só pode investigar uma situação após ter sido formalmente declarado um ato de agressão.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Os membros não permanentes são eleitos por um período de dois anos e não podem ser reeleitos para o período imediato.</t>
+          <t>O Artigo 34 permite que o Conselho de Segurança investigue qualquer controvérsia ou situação suscetível de provocar atritos para determinar se pode constituir ameaça à paz.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -799,17 +799,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Os Membros da ONU conferem ao Conselho de Segurança a principal responsabilidade na manutenção da paz e da segurança internacionais.</t>
+          <t>O Conselho de Segurança tem a função de **determinar a existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão** e decidir as medidas a serem tomadas.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A principal responsabilidade pela manutenção da paz e segurança internacionais cabe à Assembleia Geral, cabendo ao Conselho de Segurança apenas funções consultivas.</t>
+          <t>Apenas a Assembleia Geral pode determinar a existência de um ato de agressão, cabendo ao Conselho de Segurança apenas a execução das medidas.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Artigo 24 (1) confere ao Conselho de Segurança a principal responsabilidade na manutenção da paz e da segurança internacionais.</t>
+          <t>O Artigo 39 confere ao Conselho de Segurança o poder de determinar a existência de ameaça à paz, ruptura da paz ou ato de agressão.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -833,17 +833,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Os Membros das Nações Unidas concordam em aceitar e executar as decisões do Conselho de Segurança, de acordo com a presente Carta.</t>
+          <t>As **medidas provisórias** que o Conselho de Segurança convidar as partes a aceitarem **não prejudicarão os direitos ou pretensões, nem a situação das partes interessadas**.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>As decisões do Conselho de Segurança são meras recomendações e não são de execução obrigatória para os Estados-membros, exceto em caso de legítima defesa.</t>
+          <t>As medidas provisórias tomadas pelo Conselho de Segurança no Artigo 40 são vinculantes e prejudicam imediatamente os direitos e pretensões das partes culpadas.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O Artigo 25 estabelece que os Membros concordam em aceitar e executar as decisões do Conselho de Segurança.</t>
+          <t>O Artigo 40 afirma expressamente que as medidas provisórias não prejudicarão os direitos ou pretensões, nem a situação das partes interessadas.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>No cumprimento de seus deveres, o Conselho de Segurança agirá de acordo com os Propósitos e Princípios das Nações Unidas.</t>
+          <t>O Conselho de Segurança pode decidir sobre medidas **sem envolver o emprego de forças armadas**, como a **interrupção completa ou parcial das relações econômicas e dos meios de comunicação**.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança tem total liberdade de ação, não precisando aderir estritamente aos Propósitos e Princípios da Organização ao cumprir seus deveres.</t>
+          <t>Todas as sanções coercitivas do Capítulo VII devem envolver, minimamente, o emprego de forças navais e aéreas.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O Artigo 24 (2) estabelece que o Conselho de Segurança agirá de acordo com os Propósitos e Princípios das Nações Unidas.</t>
+          <t>O Artigo 41 trata de medidas que devem ser tomadas sem envolver o emprego de forças armadas, como a interrupção das relações econômicas ou de comunicação.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -901,17 +901,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cada membro do Conselho de Segurança terá um voto.</t>
+          <t>O direito inerente de legítima defesa individual ou coletiva é preservado **no caso de ocorrer um ataque armado** contra um Membro das Nações Unidas.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Apenas os membros permanentes do Conselho de Segurança possuem direito a voto, cabendo aos não permanentes apenas a participação em deliberações.</t>
+          <t>O Artigo 51 preserva o direito de legítima defesa preventiva, permitindo ação militar mesmo na ausência de um ataque armado iminente.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O Artigo 27 (1) estabelece que cada membro do Conselho de Segurança terá um voto.</t>
+          <t>O Artigo 51 exige que o direito de legítima defesa seja exercido "no caso de ocorrer um ataque armado".</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>As decisões do Conselho de Segurança em questões processuais serão tomadas pelo voto afirmativo de nove Membros.</t>
+          <t>As medidas tomadas pelos Membros no exercício da legítima defesa **serão comunicadas imediatamente ao Conselho de Segurança**.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>As decisões sobre questões processuais exigem o voto afirmativo de nove membros, incluindo o voto unânime dos membros permanentes.</t>
+          <t>O Artigo 51 permite que o Estado agredido comunique as medidas de legítima defesa ao Conselho de Segurança apenas após o restabelecimento da paz.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>As decisões em questões processuais requerem o voto afirmativo de nove Membros.</t>
+          <t>O Artigo 51 exige que as medidas tomadas em legítima defesa sejam comunicadas imediatamente ao Conselho de Segurança.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -969,17 +969,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nas decisões sobre "todos os outros assuntos", o voto afirmativo de todos os membros permanentes é obrigatório, estabelecendo-se o direito de veto.</t>
+          <t>Os Membros das Nações Unidas deverão **manter, imediatamente utilizáveis, contingentes das forças aéreas nacionais** para habilitar a ONU a tomar **medidas militares urgentes**.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Em questões substantivas, a abstenção de um membro permanente é considerada um veto, impedindo a aprovação da resolução.</t>
+          <t>A Carta exige que os Membros mantenham contingentes das forças terrestres nacionais imediatamente utilizáveis, pois estas são essenciais para medidas urgentes.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>As decisões sobre "todos os outros assuntos" exigem o voto afirmativo de nove membros, inclusive os votos afirmativos de todos os membros permanentes.</t>
+          <t>O Artigo 45 exige que os Membros mantenham contingentes das forças aéreas nacionais imediatamente utilizáveis para medidas militares urgentes.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>As partes em controvérsia devem, antes de tudo, procurar uma solução por negociação, inquérito, mediação, conciliação, arbitragem, ou a qualquer outro meio pacífico à sua escolha.</t>
+          <t>As Nações Unidas buscam a cooperação internacional para promover e estimular o respeito aos direitos humanos e às liberdades fundamentais para todos, sem distinção de raça, sexo, língua ou religião.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança deve ser o primeiro a intervir em qualquer controvérsia, pois a negociação direta entre as partes é desincentivada pela Carta.</t>
+          <t>A Carta estabelece que a promoção dos direitos humanos é responsabilidade exclusiva dos Estados-membros, sendo vedada a interferência da ONU nesse assunto.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>O Artigo 33 (1) lista os diversos meios pacíficos que as partes devem procurar antes de tudo.</t>
+          <t>O Artigo 1 (3) estabelece o propósito de conseguir cooperação internacional para promover e estimular o respeito aos direitos humanos e às liberdades fundamentais para todos, sem distinção.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança poderá investigar qualquer controvérsia para determinar se a sua continuação pode constituir ameaça à manutenção da paz e da segurança internacionais.</t>
+          <t>A Organização das Nações Unidas é baseada no princípio da igualdade de todos os seus Membros.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança só pode investigar controvérsias após o fracasso das negociações, sendo-lhe proibido investigar situações que apenas "possam provocar atritos".</t>
+          <t>A ONU é baseada no princípio da desigualdade soberana, conferindo maior peso aos membros permanentes do Conselho de Segurança em todas as decisões.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança poderá investigar qualquer controvérsia ou situação suscetível de provocar atritos para determinar se pode constituir ameaça à paz.</t>
+          <t>O Artigo 2 (1) afirma que a Organização é baseada no princípio da igualdade de todos os seus Membros.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança convidará as partes a resolver suas controvérsias por meios pacíficos quando julgar necessário.</t>
+          <t>O princípio de não intervenção em assuntos que dependam essencialmente da jurisdição interna de qualquer Estado não prejudica a aplicação das medidas coercitivas constantes do Capítulo VII da Carta.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança está proibido de convidar as partes a resolver suas controvérsias por meios pacíficos, devendo apenas emitir recomendações judiciais.</t>
+          <t>O Capítulo VII, que trata de ações coercitivas, não pode ser aplicado em assuntos que dependam da jurisdição interna de um Estado, prevalecendo o princípio de não intervenção.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança convidará as partes a resolver por tais meios (pacíficos) suas controvérsias, quando julgar necessário.</t>
+          <t>O princípio de não intervenção (Artigo 2.7) não prejudicará a aplicação das medidas coercitivas constantes do Capítulo VII.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança determinará a existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão, e decidirá as medidas a serem tomadas.</t>
+          <t>O Conselho de Segurança é composto por quinze Membros das Nações Unidas.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A determinação de um ato de agressão é responsabilidade exclusiva da Assembleia Geral, cabendo ao Conselho de Segurança apenas a execução das sanções.</t>
+          <t>O Conselho de Segurança é composto por dez membros não permanentes e dois membros permanentes, totalizando doze membros.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>O Artigo 39 estabelece que o Conselho de Segurança determinará a existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão.</t>
+          <t>O Conselho de Segurança será composto de quinze Membros das Nações Unidas.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1139,17 +1139,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança poderá convidar as partes a aceitarem medidas provisórias, a fim de evitar que a situação se agrave, tomando nota do não cumprimento dessas medidas.</t>
+          <t>A República da China, a França, a União das Repúblicas Socialistas Soviéticas, o Reino Unido da Grã-Bretanha e Irlanda do Norte e os Estados Unidos da América são os membros permanentes do Conselho de Segurança.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>As medidas provisórias tomadas pelo Conselho de Segurança no Artigo 40 são obrigatoriamente coercitivas e envolvem o emprego de forças armadas, sem prejuízo da situação das partes interessadas.</t>
+          <t>Os membros permanentes do Conselho de Segurança incluem a Alemanha, o Japão e a Índia, além dos Estados Unidos e da Rússia.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>O Artigo 40 trata de medidas provisórias, que não envolvem forças armadas e não prejudicam direitos, mas o não cumprimento será notado.</t>
+          <t>Os cinco membros permanentes estão listados no Artigo 23 (1).</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança pode impor a interrupção completa ou parcial das relações econômicas, dos meios de comunicação e o rompimento das relações diplomáticas, sem envolver o emprego de forças armadas.</t>
+          <t>Os membros não permanentes do Conselho de Segurança são eleitos por um período de dois anos, e nenhum membro que termine seu mandato poderá ser reeleito para o período imediato.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>As sanções do Artigo 41 se limitam a embargos econômicos, não incluindo a interrupção dos meios de comunicação ou o rompimento de relações diplomáticas.</t>
+          <t>Os membros não permanentes são eleitos por um período de quatro anos, e podem ser reeleitos imediatamente, dependendo da distribuição geográfica equitativa.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O Artigo 41 lista a interrupção completa ou parcial das relações econômicas, dos meios de comunicação e o rompimento das relações diplomáticas.</t>
+          <t>Os membros não permanentes são eleitos por um período de dois anos e não podem ser reeleitos para o período imediato.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança poderá levar a efeito uma ação militar, por meio de forças aéreas, navais ou terrestres, se considerar que as medidas não militares (Artigo 41) são inadequadas.</t>
+          <t>Os Membros da ONU conferem ao Conselho de Segurança a principal responsabilidade na manutenção da paz e da segurança internacionais.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança pode optar diretamente por ações militares sem a necessidade de determinar previamente a inadequação das medidas não militares.</t>
+          <t>A principal responsabilidade pela manutenção da paz e segurança internacionais cabe à Assembleia Geral, cabendo ao Conselho de Segurança apenas funções consultivas.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>O Artigo 42 permite ação militar apenas "no caso de o Conselho de Segurança considerar que as medidas previstas no Artigo 41 seriam ou demonstraram que são inadequadas".</t>
+          <t>O Artigo 24 (1) confere ao Conselho de Segurança a principal responsabilidade na manutenção da paz e da segurança internacionais.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1241,17 +1241,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A ação militar do Conselho de Segurança poderá compreender demonstrações, bloqueios e outras operações, por parte das forças aéreas, navais ou terrestres dos Membros das Nações Unidas.</t>
+          <t>Os Membros das Nações Unidas concordam em aceitar e executar as decisões do Conselho de Segurança, de acordo com a presente Carta.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A ação militar da ONU, conforme o Artigo 42, é limitada a operações de manutenção da paz (peacekeeping), proibindo bloqueios e demonstrações coercitivas.</t>
+          <t>As decisões do Conselho de Segurança são meras recomendações e não são de execução obrigatória para os Estados-membros, exceto em caso de legítima defesa.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>O Artigo 42 lista demonstrações, bloqueios e outras operações como possíveis ações militares.</t>
+          <t>O Artigo 25 estabelece que os Membros concordam em aceitar e executar as decisões do Conselho de Segurança.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1275,17 +1275,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Os Membros das Nações Unidas se comprometem a proporcionar ao Conselho de Segurança, mediante acordos especiais, forças armadas, assistência e facilidades necessárias à manutenção da paz.</t>
+          <t>No cumprimento de seus deveres, o Conselho de Segurança agirá de acordo com os Propósitos e Princípios das Nações Unidas.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>O fornecimento de forças armadas pelos Membros ao Conselho de Segurança é voluntário e não depende de acordos especiais prévios.</t>
+          <t>O Conselho de Segurança tem total liberdade de ação, não precisando aderir estritamente aos Propósitos e Princípios da Organização ao cumprir seus deveres.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Os Membros se comprometem a proporcionar forças armadas, assistência e facilidades, mas de conformidade com o acôrdo ou acordos especiais.</t>
+          <t>O Artigo 24 (2) estabelece que o Conselho de Segurança agirá de acordo com os Propósitos e Princípios das Nações Unidas.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Os acordos especiais entre o Conselho de Segurança e os Membros devem determinar o número e tipo das forças, seu grau de preparação e sua localização geral.</t>
+          <t>Cada membro do Conselho de Segurança terá um voto.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Os acordos especiais (Artigo 43) se referem apenas à assistência logística, não determinando o tipo, número ou localização das forças armadas.</t>
+          <t>Apenas os membros permanentes do Conselho de Segurança possuem direito a voto, cabendo aos não permanentes apenas a participação em deliberações.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>O Artigo 43 (2) determina que o número e tipo das forças, o grau de preparação e sua localização geral serão determinados pelos acordos.</t>
+          <t>O Artigo 27 (1) estabelece que cada membro do Conselho de Segurança terá um voto.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1343,17 +1343,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança deve convidar um Membro não representado no Conselho a participar das decisões relativas ao emprego de seus contingentes, se o Membro assim o desejar.</t>
+          <t>As decisões do Conselho de Segurança em questões processuais serão tomadas pelo voto afirmativo de nove Membros.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Membros da ONU não representados no Conselho são obrigados a fornecer forças armadas se solicitado, mas não têm o direito de participar das decisões sobre o seu emprego.</t>
+          <t>As decisões sobre questões processuais exigem o voto afirmativo de nove membros, incluindo o voto unânime dos membros permanentes.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>O Artigo 44 estabelece que o Conselho deve convidar o referido Membro a participar das decisões, se este assim o desejar.</t>
+          <t>As decisões em questões processuais requerem o voto afirmativo de nove Membros.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1377,17 +1377,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Os Membros da ONU deverão manter contingentes das forças aéreas nacionais imediatamente utilizáveis, a fim de habilitar as Nações Unidas a tomarem medidas militares urgentes.</t>
+          <t>Nas decisões sobre "todos os outros assuntos", o voto afirmativo de todos os membros permanentes é obrigatório, estabelecendo-se o direito de veto.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A manutenção de contingentes de forças terrestres imediatamente utilizáveis é a principal prioridade para que a ONU possa tomar medidas militares urgentes.</t>
+          <t>Em questões substantivas, a abstenção de um membro permanente é considerada um veto, impedindo a aprovação da resolução.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>O Artigo 45 exige que os Membros mantenham contingentes das **forças aéreas** nacionais imediatamente utilizáveis.</t>
+          <t>As decisões sobre "todos os outros assuntos" exigem o voto afirmativo de nove membros, inclusive os votos afirmativos de todos os membros permanentes.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança fará planos para a aplicação das forças armadas com a assistência da Comissão de Estado Maior.</t>
+          <t>As partes em controvérsia devem, antes de tudo, procurar uma solução por negociação, inquérito, mediação, conciliação, arbitragem, ou a qualquer outro meio pacífico à sua escolha.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A aplicação das forças armadas é de inteira responsabilidade do Secretário-Geral, que deve formular os planos sem assistência da Comissão de Estado Maior.</t>
+          <t>O Conselho de Segurança deve ser o primeiro a intervir em qualquer controvérsia, pois a negociação direta entre as partes é desincentivada pela Carta.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>O Artigo 46 estabelece que o Conselho de Segurança, com a assistência da Comissão de Estado Maior, fará planos para a aplicação das forças armadas.</t>
+          <t>O Artigo 33 (1) lista os diversos meios pacíficos que as partes devem procurar antes de tudo.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1445,17 +1445,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A Comissão de Estado Maior será composta pelos Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
+          <t>O Conselho de Segurança poderá investigar qualquer controvérsia para determinar se a sua continuação pode constituir ameaça à manutenção da paz e da segurança internacionais.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A Comissão de Estado Maior é composta pelos Chefes de Estado Maior de todos os quinze membros do Conselho de Segurança.</t>
+          <t>O Conselho de Segurança só pode investigar controvérsias após o fracasso das negociações, sendo-lhe proibido investigar situações que apenas "possam provocar atritos".</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>O Artigo 47 (2) especifica que a Comissão é composta pelos Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
+          <t>O Conselho de Segurança poderá investigar qualquer controvérsia ou situação suscetível de provocar atritos para determinar se pode constituir ameaça à paz.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1479,17 +1479,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A Comissão de Estado Maior deve orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, à utilização e comando das forças, e à regulamentação de armamentos.</t>
+          <t>O Conselho de Segurança convidará as partes a resolver suas controvérsias por meios pacíficos quando julgar necessário.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A Comissão de Estado Maior tem a responsabilidade exclusiva pelo comando tático das forças armadas da ONU, sem a necessidade de orientação do Conselho de Segurança.</t>
+          <t>O Conselho de Segurança está proibido de convidar as partes a resolver suas controvérsias por meios pacíficos, devendo apenas emitir recomendações judiciais.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>O Artigo 47 (1) define o papel da Comissão como orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, utilização e comando das forças.</t>
+          <t>O Conselho de Segurança convidará as partes a resolver por tais meios (pacíficos) suas controvérsias, quando julgar necessário.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1513,17 +1513,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A ação necessária ao cumprimento das decisões do Conselho de Segurança será levada a efeito por todos os Membros ou por alguns deles, conforme determinado pelo Conselho.</t>
+          <t>O Conselho de Segurança determinará a existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão, e decidirá as medidas a serem tomadas.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Todas as decisões coercitivas do Conselho de Segurança devem ser executadas coletivamente por todos os Membros da ONU.</t>
+          <t>A determinação de um ato de agressão é responsabilidade exclusiva da Assembleia Geral, cabendo ao Conselho de Segurança apenas a execução das sanções.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>O Artigo 48 (1) estabelece que a ação será levada a efeito por todos os Membros ou por alguns deles, conforme seja determinado pelo Conselho de Segurança.</t>
+          <t>O Artigo 39 estabelece que o Conselho de Segurança determinará a existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1547,17 +1547,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Os Membros das Nações Unidas prestar-se-ão assistência mútua para a execução das medidas determinadas pelo Conselho de Segurança.</t>
+          <t>O Conselho de Segurança poderá convidar as partes a aceitarem medidas provisórias, a fim de evitar que a situação se agrave, tomando nota do não cumprimento dessas medidas.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A assistência mútua entre os Membros da ONU é obrigatória apenas para ações de legítima defesa, não se aplicando às medidas coercitivas do Conselho de Segurança.</t>
+          <t>As medidas provisórias tomadas pelo Conselho de Segurança no Artigo 40 são obrigatoriamente coercitivas e envolvem o emprego de forças armadas, sem prejuízo da situação das partes interessadas.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>O Artigo 49 obriga os Membros a prestarem assistência mútua para a execução das medidas determinadas pelo Conselho de Segurança.</t>
+          <t>O Artigo 40 trata de medidas provisórias, que não envolvem forças armadas e não prejudicam direitos, mas o não cumprimento será notado.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1581,17 +1581,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Qualquer Estado que sofra problemas econômicos resultantes de medidas preventivas ou coercitivas do Conselho de Segurança tem o direito de consultar o Conselho a respeito da solução de tais problemas.</t>
+          <t>O Conselho de Segurança pode impor a interrupção completa ou parcial das relações econômicas, dos meios de comunicação e o rompimento das relações diplomáticas, sem envolver o emprego de forças armadas.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Somente os Estados-membros da ONU têm o direito de consultar o Conselho de Segurança sobre problemas econômicos decorrentes de sanções.</t>
+          <t>As sanções do Artigo 41 se limitam a embargos econômicos, não incluindo a interrupção dos meios de comunicação ou o rompimento de relações diplomáticas.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>O Artigo 50 confere o direito de consulta ao Conselho de Segurança para qualquer outro Estado, "Membro ou não das Nações Unidas", que se sinta em presença de problemas especiais de natureza econômica.</t>
+          <t>O Artigo 41 lista a interrupção completa ou parcial das relações econômicas, dos meios de comunicação e o rompimento das relações diplomáticas.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1615,17 +1615,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O direito inerente de legítima defesa individual ou coletiva é preservado no caso de ocorrer um ataque armado contra um Membro das Nações Unidas.</t>
+          <t>O Conselho de Segurança poderá levar a efeito uma ação militar, por meio de forças aéreas, navais ou terrestres, se considerar que as medidas não militares (Artigo 41) são inadequadas.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas aboliu o direito de legítima defesa individual, permitindo apenas a legítima defesa coletiva, desde que autorizada pelo Conselho de Segurança.</t>
+          <t>O Conselho de Segurança pode optar diretamente por ações militares sem a necessidade de determinar previamente a inadequação das medidas não militares.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>O Artigo 51 preserva o direito inerente de legítima defesa individual ou coletiva no caso de ocorrer um ataque armado.</t>
+          <t>O Artigo 42 permite ação militar apenas "no caso de o Conselho de Segurança considerar que as medidas previstas no Artigo 41 seriam ou demonstraram que são inadequadas".</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1649,17 +1649,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O direito de legítima defesa se estende apenas até o momento em que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais.</t>
+          <t>A ação militar do Conselho de Segurança poderá compreender demonstrações, bloqueios e outras operações, por parte das forças aéreas, navais ou terrestres dos Membros das Nações Unidas.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>O direito de legítima defesa, uma vez exercido, só pode ser encerrado por decisão do Estado agredido, independentemente das ações subsequentes do Conselho de Segurança.</t>
+          <t>A ação militar da ONU, conforme o Artigo 42, é limitada a operações de manutenção da paz (peacekeeping), proibindo bloqueios e demonstrações coercitivas.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>O direito de legítima defesa dura "até que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais".</t>
+          <t>O Artigo 42 lista demonstrações, bloqueios e outras operações como possíveis ações militares.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1683,21 +1683,429 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>As medidas tomadas pelos Membros no exercício da legítima defesa devem ser comunicadas imediatamente ao Conselho de Segurança.</t>
+          <t>Os Membros das Nações Unidas se comprometem a proporcionar ao Conselho de Segurança, mediante acordos especiais, forças armadas, assistência e facilidades necessárias à manutenção da paz.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A comunicação das medidas de legítima defesa ao Conselho de Segurança é opcional, cabendo ao Estado agredido decidir se o fará.</t>
+          <t>O fornecimento de forças armadas pelos Membros ao Conselho de Segurança é voluntário e não depende de acordos especiais prévios.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>O Artigo 51 estabelece que as medidas tomadas pelos Membros no exercício desse direito de legítima defesa serão comunicadas imediatamente ao Conselho de Segurança.</t>
+          <t>Os Membros se comprometem a proporcionar forças armadas, assistência e facilidades, mas de conformidade com o acôrdo ou acordos especiais.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Os acordos especiais entre o Conselho de Segurança e os Membros devem determinar o número e tipo das forças, seu grau de preparação e sua localização geral.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Os acordos especiais (Artigo 43) se referem apenas à assistência logística, não determinando o tipo, número ou localização das forças armadas.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>O Artigo 43 (2) determina que o número e tipo das forças, o grau de preparação e sua localização geral serão determinados pelos acordos.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>O Conselho de Segurança deve convidar um Membro não representado no Conselho a participar das decisões relativas ao emprego de seus contingentes, se o Membro assim o desejar.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Membros da ONU não representados no Conselho são obrigados a fornecer forças armadas se solicitado, mas não têm o direito de participar das decisões sobre o seu emprego.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>O Artigo 44 estabelece que o Conselho deve convidar o referido Membro a participar das decisões, se este assim o desejar.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Os Membros da ONU deverão manter contingentes das forças aéreas nacionais imediatamente utilizáveis, a fim de habilitar as Nações Unidas a tomarem medidas militares urgentes.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A manutenção de contingentes de forças terrestres imediatamente utilizáveis é a principal prioridade para que a ONU possa tomar medidas militares urgentes.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>O Artigo 45 exige que os Membros mantenham contingentes das **forças aéreas** nacionais imediatamente utilizáveis.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>O Conselho de Segurança fará planos para a aplicação das forças armadas com a assistência da Comissão de Estado Maior.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>A aplicação das forças armadas é de inteira responsabilidade do Secretário-Geral, que deve formular os planos sem assistência da Comissão de Estado Maior.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>O Artigo 46 estabelece que o Conselho de Segurança, com a assistência da Comissão de Estado Maior, fará planos para a aplicação das forças armadas.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>A Comissão de Estado Maior será composta pelos Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>A Comissão de Estado Maior é composta pelos Chefes de Estado Maior de todos os quinze membros do Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>O Artigo 47 (2) especifica que a Comissão é composta pelos Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>A Comissão de Estado Maior deve orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, à utilização e comando das forças, e à regulamentação de armamentos.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>A Comissão de Estado Maior tem a responsabilidade exclusiva pelo comando tático das forças armadas da ONU, sem a necessidade de orientação do Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>O Artigo 47 (1) define o papel da Comissão como orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, utilização e comando das forças.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>A ação necessária ao cumprimento das decisões do Conselho de Segurança será levada a efeito por todos os Membros ou por alguns deles, conforme determinado pelo Conselho.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Todas as decisões coercitivas do Conselho de Segurança devem ser executadas coletivamente por todos os Membros da ONU.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>O Artigo 48 (1) estabelece que a ação será levada a efeito por todos os Membros ou por alguns deles, conforme seja determinado pelo Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Os Membros das Nações Unidas prestar-se-ão assistência mútua para a execução das medidas determinadas pelo Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>A assistência mútua entre os Membros da ONU é obrigatória apenas para ações de legítima defesa, não se aplicando às medidas coercitivas do Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>O Artigo 49 obriga os Membros a prestarem assistência mútua para a execução das medidas determinadas pelo Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Qualquer Estado que sofra problemas econômicos resultantes de medidas preventivas ou coercitivas do Conselho de Segurança tem o direito de consultar o Conselho a respeito da solução de tais problemas.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Somente os Estados-membros da ONU têm o direito de consultar o Conselho de Segurança sobre problemas econômicos decorrentes de sanções.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>O Artigo 50 confere o direito de consulta ao Conselho de Segurança para qualquer outro Estado, "Membro ou não das Nações Unidas", que se sinta em presença de problemas especiais de natureza econômica.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>O direito inerente de legítima defesa individual ou coletiva é preservado no caso de ocorrer um ataque armado contra um Membro das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>A Carta das Nações Unidas aboliu o direito de legítima defesa individual, permitindo apenas a legítima defesa coletiva, desde que autorizada pelo Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>O Artigo 51 preserva o direito inerente de legítima defesa individual ou coletiva no caso de ocorrer um ataque armado.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>O direito de legítima defesa se estende apenas até o momento em que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>O direito de legítima defesa, uma vez exercido, só pode ser encerrado por decisão do Estado agredido, independentemente das ações subsequentes do Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>O direito de legítima defesa dura "até que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais".</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>As medidas tomadas pelos Membros no exercício da legítima defesa devem ser comunicadas imediatamente ao Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>A comunicação das medidas de legítima defesa ao Conselho de Segurança é opcional, cabendo ao Estado agredido decidir se o fará.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>O Artigo 51 estabelece que as medidas tomadas pelos Membros no exercício desse direito de legítima defesa serão comunicadas imediatamente ao Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
